--- a/8/5/1/Saldo de balanza comercial 2003 a 2021 - Trimestral.xlsx
+++ b/8/5/1/Saldo de balanza comercial 2003 a 2021 - Trimestral.xlsx
@@ -1194,7 +1194,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>3957</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>4449</v>
+        <v>4174</v>
       </c>
     </row>
   </sheetData>

--- a/8/5/1/Saldo de balanza comercial 2003 a 2021 - Trimestral.xlsx
+++ b/8/5/1/Saldo de balanza comercial 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Serie</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1205,6 +1208,14 @@
         <v>4174</v>
       </c>
     </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>689</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
